--- a/excels/Data_QA_Tests.xlsx
+++ b/excels/Data_QA_Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="11760" tabRatio="661" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="11760" tabRatio="661"/>
   </bookViews>
   <sheets>
     <sheet name="MBA Standard Reports" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,6 @@
     <t>Auto_Data_MBACSEA_Table_2A_10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Post Graduation </t>
-  </si>
-  <si>
     <t>Auto_Data_MBACSEA_Table_2B_1</t>
   </si>
   <si>
@@ -1335,9 +1332,6 @@
     <t>Post Graduation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Post Graduation  </t>
-  </si>
-  <si>
     <t>Work Authorization</t>
   </si>
   <si>
@@ -1600,6 +1594,12 @@
   </si>
   <si>
     <t>Auto_Data_CS_UCentralised_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Graduation  </t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -2546,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>12</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
@@ -2593,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>12</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
@@ -2640,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>12</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>9</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>9</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>9</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -3701,12 +3701,12 @@
         <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -3748,12 +3748,12 @@
         <v>49</v>
       </c>
       <c r="O33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -3795,12 +3795,12 @@
         <v>49</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
@@ -3842,12 +3842,12 @@
         <v>49</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
@@ -3889,12 +3889,12 @@
         <v>49</v>
       </c>
       <c r="O36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
@@ -3936,12 +3936,12 @@
         <v>49</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -3983,12 +3983,12 @@
         <v>49</v>
       </c>
       <c r="O38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -4030,12 +4030,12 @@
         <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -4077,12 +4077,12 @@
         <v>49</v>
       </c>
       <c r="O40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>9</v>
@@ -4124,12 +4124,12 @@
         <v>49</v>
       </c>
       <c r="O41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="26.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -4171,12 +4171,12 @@
         <v>50</v>
       </c>
       <c r="O42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="26.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -4218,12 +4218,12 @@
         <v>50</v>
       </c>
       <c r="O43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="26.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
@@ -4265,12 +4265,12 @@
         <v>50</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="26.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
@@ -4312,12 +4312,12 @@
         <v>50</v>
       </c>
       <c r="O45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="26.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -4359,12 +4359,12 @@
         <v>50</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="26.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -4406,12 +4406,12 @@
         <v>50</v>
       </c>
       <c r="O47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="26.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
@@ -4453,12 +4453,12 @@
         <v>50</v>
       </c>
       <c r="O48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="26.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
@@ -4500,12 +4500,12 @@
         <v>50</v>
       </c>
       <c r="O49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="26.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
@@ -4547,12 +4547,12 @@
         <v>50</v>
       </c>
       <c r="O50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="26.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>9</v>
@@ -4594,12 +4594,12 @@
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
@@ -4641,12 +4641,12 @@
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>9</v>
@@ -4688,12 +4688,12 @@
         <v>51</v>
       </c>
       <c r="O53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -4735,12 +4735,12 @@
         <v>51</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
@@ -4782,12 +4782,12 @@
         <v>51</v>
       </c>
       <c r="O55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
@@ -4829,12 +4829,12 @@
         <v>51</v>
       </c>
       <c r="O56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>9</v>
@@ -4876,12 +4876,12 @@
         <v>51</v>
       </c>
       <c r="O57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>9</v>
@@ -4923,12 +4923,12 @@
         <v>51</v>
       </c>
       <c r="O58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>9</v>
@@ -4970,12 +4970,12 @@
         <v>51</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
@@ -5017,12 +5017,12 @@
         <v>51</v>
       </c>
       <c r="O60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>9</v>
@@ -5064,12 +5064,12 @@
         <v>51</v>
       </c>
       <c r="O61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="26.25">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>9</v>
@@ -5111,12 +5111,12 @@
         <v>52</v>
       </c>
       <c r="O62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="26.25">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
@@ -5158,12 +5158,12 @@
         <v>52</v>
       </c>
       <c r="O63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="26.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>9</v>
@@ -5205,12 +5205,12 @@
         <v>52</v>
       </c>
       <c r="O64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="26.25">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>9</v>
@@ -5252,12 +5252,12 @@
         <v>52</v>
       </c>
       <c r="O65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="26.25">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
@@ -5299,12 +5299,12 @@
         <v>52</v>
       </c>
       <c r="O66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="26.25">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>9</v>
@@ -5346,12 +5346,12 @@
         <v>52</v>
       </c>
       <c r="O67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="26.25">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
@@ -5393,12 +5393,12 @@
         <v>52</v>
       </c>
       <c r="O68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="26.25">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
@@ -5440,12 +5440,12 @@
         <v>52</v>
       </c>
       <c r="O69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="26.25">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
@@ -5487,12 +5487,12 @@
         <v>52</v>
       </c>
       <c r="O70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="26.25">
       <c r="A71" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>9</v>
@@ -5534,12 +5534,12 @@
         <v>52</v>
       </c>
       <c r="O71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
@@ -5581,12 +5581,12 @@
         <v>53</v>
       </c>
       <c r="O72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -5628,12 +5628,12 @@
         <v>53</v>
       </c>
       <c r="O73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
@@ -5675,12 +5675,12 @@
         <v>53</v>
       </c>
       <c r="O74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
@@ -5722,12 +5722,12 @@
         <v>53</v>
       </c>
       <c r="O75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
@@ -5769,12 +5769,12 @@
         <v>53</v>
       </c>
       <c r="O76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -5816,12 +5816,12 @@
         <v>53</v>
       </c>
       <c r="O77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -5863,12 +5863,12 @@
         <v>53</v>
       </c>
       <c r="O78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -5910,12 +5910,12 @@
         <v>53</v>
       </c>
       <c r="O79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -5957,12 +5957,12 @@
         <v>53</v>
       </c>
       <c r="O80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>9</v>
@@ -6004,12 +6004,12 @@
         <v>53</v>
       </c>
       <c r="O81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>9</v>
@@ -6051,12 +6051,12 @@
         <v>54</v>
       </c>
       <c r="O82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>9</v>
@@ -6098,12 +6098,12 @@
         <v>54</v>
       </c>
       <c r="O83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>9</v>
@@ -6145,12 +6145,12 @@
         <v>54</v>
       </c>
       <c r="O84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
@@ -6192,12 +6192,12 @@
         <v>54</v>
       </c>
       <c r="O85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
@@ -6239,12 +6239,12 @@
         <v>54</v>
       </c>
       <c r="O86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
@@ -6286,12 +6286,12 @@
         <v>54</v>
       </c>
       <c r="O87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
@@ -6333,12 +6333,12 @@
         <v>54</v>
       </c>
       <c r="O88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>9</v>
@@ -6380,12 +6380,12 @@
         <v>54</v>
       </c>
       <c r="O89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>9</v>
@@ -6427,12 +6427,12 @@
         <v>54</v>
       </c>
       <c r="O90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>9</v>
@@ -6474,12 +6474,12 @@
         <v>54</v>
       </c>
       <c r="O91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="26.25">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
@@ -6521,12 +6521,12 @@
         <v>55</v>
       </c>
       <c r="O92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="26.25">
       <c r="A93" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
@@ -6568,12 +6568,12 @@
         <v>55</v>
       </c>
       <c r="O93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="26.25">
       <c r="A94" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
@@ -6615,12 +6615,12 @@
         <v>55</v>
       </c>
       <c r="O94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="26.25">
       <c r="A95" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
@@ -6662,12 +6662,12 @@
         <v>55</v>
       </c>
       <c r="O95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="26.25">
       <c r="A96" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>9</v>
@@ -6709,12 +6709,12 @@
         <v>55</v>
       </c>
       <c r="O96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="26.25">
       <c r="A97" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>9</v>
@@ -6756,12 +6756,12 @@
         <v>55</v>
       </c>
       <c r="O97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="26.25">
       <c r="A98" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
@@ -6803,12 +6803,12 @@
         <v>55</v>
       </c>
       <c r="O98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="26.25">
       <c r="A99" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -6850,12 +6850,12 @@
         <v>55</v>
       </c>
       <c r="O99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="26.25">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
@@ -6897,12 +6897,12 @@
         <v>55</v>
       </c>
       <c r="O100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="26.25">
       <c r="A101" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>9</v>
@@ -6944,12 +6944,12 @@
         <v>55</v>
       </c>
       <c r="O101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="26.25">
       <c r="A102" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
@@ -6991,12 +6991,12 @@
         <v>56</v>
       </c>
       <c r="O102" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="26.25">
       <c r="A103" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>9</v>
@@ -7038,12 +7038,12 @@
         <v>56</v>
       </c>
       <c r="O103" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="26.25">
       <c r="A104" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
@@ -7085,12 +7085,12 @@
         <v>56</v>
       </c>
       <c r="O104" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="26.25">
       <c r="A105" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>9</v>
@@ -7132,12 +7132,12 @@
         <v>56</v>
       </c>
       <c r="O105" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="26.25">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>9</v>
@@ -7179,12 +7179,12 @@
         <v>56</v>
       </c>
       <c r="O106" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="26.25">
       <c r="A107" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -7226,12 +7226,12 @@
         <v>56</v>
       </c>
       <c r="O107" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="26.25">
       <c r="A108" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
@@ -7273,12 +7273,12 @@
         <v>56</v>
       </c>
       <c r="O108" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="26.25">
       <c r="A109" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
@@ -7320,12 +7320,12 @@
         <v>56</v>
       </c>
       <c r="O109" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="26.25">
       <c r="A110" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>9</v>
@@ -7367,12 +7367,12 @@
         <v>56</v>
       </c>
       <c r="O110" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="26.25">
       <c r="A111" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B111" s="19" t="s">
         <v>9</v>
@@ -7414,12 +7414,12 @@
         <v>56</v>
       </c>
       <c r="O111" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="26.25">
       <c r="A112" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
@@ -7461,12 +7461,12 @@
         <v>57</v>
       </c>
       <c r="O112" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="26.25">
       <c r="A113" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
@@ -7508,12 +7508,12 @@
         <v>57</v>
       </c>
       <c r="O113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="26.25">
       <c r="A114" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
@@ -7555,12 +7555,12 @@
         <v>57</v>
       </c>
       <c r="O114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="26.25">
       <c r="A115" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -7602,12 +7602,12 @@
         <v>57</v>
       </c>
       <c r="O115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="26.25">
       <c r="A116" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
@@ -7649,12 +7649,12 @@
         <v>57</v>
       </c>
       <c r="O116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="26.25">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
@@ -7696,12 +7696,12 @@
         <v>57</v>
       </c>
       <c r="O117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="26.25">
       <c r="A118" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
@@ -7743,12 +7743,12 @@
         <v>57</v>
       </c>
       <c r="O118" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="26.25">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
@@ -7790,12 +7790,12 @@
         <v>57</v>
       </c>
       <c r="O119" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="26.25">
       <c r="A120" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
@@ -7837,12 +7837,12 @@
         <v>57</v>
       </c>
       <c r="O120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="26.25">
       <c r="A121" s="1" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>9</v>
@@ -7884,7 +7884,7 @@
         <v>57</v>
       </c>
       <c r="O121" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7897,7 +7897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -7939,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>46</v>
@@ -8008,7 +8008,7 @@
         <v>58</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P2" s="13"/>
     </row>
@@ -8056,7 +8056,7 @@
         <v>58</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P3" s="13"/>
     </row>
@@ -8104,7 +8104,7 @@
         <v>58</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P4" s="13"/>
     </row>
@@ -8152,7 +8152,7 @@
         <v>58</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P5" s="13"/>
     </row>
@@ -8200,7 +8200,7 @@
         <v>59</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P6" s="13"/>
     </row>
@@ -8248,7 +8248,7 @@
         <v>59</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P7" s="13"/>
     </row>
@@ -8296,7 +8296,7 @@
         <v>59</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P8" s="13"/>
     </row>
@@ -8344,7 +8344,7 @@
         <v>59</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P9" s="13"/>
     </row>
@@ -8392,7 +8392,7 @@
         <v>60</v>
       </c>
       <c r="O10" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P10" s="13"/>
     </row>
@@ -8440,7 +8440,7 @@
         <v>60</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P11" s="13"/>
     </row>
@@ -8488,7 +8488,7 @@
         <v>60</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P12" s="13"/>
     </row>
@@ -8536,7 +8536,7 @@
         <v>60</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P13" s="13"/>
     </row>
@@ -8584,7 +8584,7 @@
         <v>61</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P14" s="13"/>
     </row>
@@ -8632,7 +8632,7 @@
         <v>61</v>
       </c>
       <c r="O15" s="53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P15" s="13"/>
     </row>
@@ -8680,7 +8680,7 @@
         <v>61</v>
       </c>
       <c r="O16" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P16" s="13"/>
     </row>
@@ -8728,7 +8728,7 @@
         <v>61</v>
       </c>
       <c r="O17" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P17" s="13"/>
     </row>
@@ -8776,7 +8776,7 @@
         <v>62</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P18" s="13"/>
     </row>
@@ -8824,7 +8824,7 @@
         <v>62</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P19" s="13"/>
     </row>
@@ -8872,7 +8872,7 @@
         <v>62</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P20" s="13"/>
     </row>
@@ -8920,7 +8920,7 @@
         <v>62</v>
       </c>
       <c r="O21" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P21" s="13"/>
     </row>
@@ -8968,7 +8968,7 @@
         <v>63</v>
       </c>
       <c r="O22" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P22" s="13"/>
     </row>
@@ -9016,7 +9016,7 @@
         <v>63</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P23" s="13"/>
     </row>
@@ -9064,7 +9064,7 @@
         <v>63</v>
       </c>
       <c r="O24" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P24" s="13"/>
     </row>
@@ -9112,7 +9112,7 @@
         <v>63</v>
       </c>
       <c r="O25" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P25" s="13"/>
     </row>
@@ -9160,7 +9160,7 @@
         <v>64</v>
       </c>
       <c r="O26" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P26" s="13"/>
     </row>
@@ -9208,7 +9208,7 @@
         <v>64</v>
       </c>
       <c r="O27" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P27" s="13"/>
     </row>
@@ -9256,7 +9256,7 @@
         <v>64</v>
       </c>
       <c r="O28" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P28" s="13"/>
     </row>
@@ -9304,7 +9304,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P29" s="13"/>
     </row>
@@ -9352,7 +9352,7 @@
         <v>65</v>
       </c>
       <c r="O30" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P30" s="13"/>
     </row>
@@ -9400,7 +9400,7 @@
         <v>65</v>
       </c>
       <c r="O31" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P31" s="13"/>
     </row>
@@ -9448,7 +9448,7 @@
         <v>65</v>
       </c>
       <c r="O32" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P32" s="13"/>
     </row>
@@ -9496,7 +9496,7 @@
         <v>65</v>
       </c>
       <c r="O33" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P33" s="13"/>
     </row>
@@ -9544,7 +9544,7 @@
         <v>66</v>
       </c>
       <c r="O34" s="58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P34" s="13"/>
     </row>
@@ -9592,7 +9592,7 @@
         <v>66</v>
       </c>
       <c r="O35" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P35" s="13"/>
     </row>
@@ -9640,7 +9640,7 @@
         <v>66</v>
       </c>
       <c r="O36" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P36" s="13"/>
     </row>
@@ -9688,7 +9688,7 @@
         <v>66</v>
       </c>
       <c r="O37" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P37" s="13"/>
     </row>
@@ -9736,7 +9736,7 @@
         <v>67</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P38" s="13"/>
     </row>
@@ -9784,7 +9784,7 @@
         <v>67</v>
       </c>
       <c r="O39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P39" s="13"/>
     </row>
@@ -9832,7 +9832,7 @@
         <v>67</v>
       </c>
       <c r="O40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P40" s="13"/>
     </row>
@@ -9880,7 +9880,7 @@
         <v>67</v>
       </c>
       <c r="O41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P41" s="13"/>
     </row>
@@ -9940,10 +9940,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="65" t="s">
         <v>356</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>357</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>4</v>
@@ -9973,7 +9973,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D2" s="63">
         <v>2014</v>
@@ -10006,10 +10006,10 @@
         <v>13</v>
       </c>
       <c r="N2" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="O2" s="64" t="s">
         <v>359</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -10020,7 +10020,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="63">
         <v>2014</v>
@@ -10053,10 +10053,10 @@
         <v>13</v>
       </c>
       <c r="N3" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -10067,7 +10067,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="63">
         <v>2014</v>
@@ -10100,10 +10100,10 @@
         <v>13</v>
       </c>
       <c r="N4" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O4" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -10114,7 +10114,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" s="63">
         <v>2014</v>
@@ -10147,10 +10147,10 @@
         <v>13</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -10161,7 +10161,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" s="63">
         <v>2014</v>
@@ -10194,10 +10194,10 @@
         <v>13</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O6" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -10208,7 +10208,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7" s="63">
         <v>2014</v>
@@ -10241,10 +10241,10 @@
         <v>13</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -10255,7 +10255,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="63">
         <v>2014</v>
@@ -10288,10 +10288,10 @@
         <v>13</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -10302,7 +10302,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" s="63">
         <v>2013</v>
@@ -10335,10 +10335,10 @@
         <v>13</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O9" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -10349,7 +10349,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" s="63">
         <v>2014</v>
@@ -10378,10 +10378,10 @@
       <c r="L10" s="63"/>
       <c r="M10" s="63"/>
       <c r="N10" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O10" s="64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -10392,7 +10392,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" s="63">
         <v>2014</v>
@@ -10421,10 +10421,10 @@
       <c r="L11" s="63"/>
       <c r="M11" s="63"/>
       <c r="N11" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O11" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -10435,7 +10435,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D12" s="63">
         <v>2014</v>
@@ -10468,10 +10468,10 @@
         <v>13</v>
       </c>
       <c r="N12" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="O12" s="64" t="s">
         <v>371</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -10482,7 +10482,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="63">
         <v>2014</v>
@@ -10515,10 +10515,10 @@
         <v>13</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O13" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -10529,7 +10529,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="63">
         <v>2014</v>
@@ -10562,10 +10562,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O14" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -10576,7 +10576,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" s="63">
         <v>2014</v>
@@ -10609,10 +10609,10 @@
         <v>13</v>
       </c>
       <c r="N15" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O15" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -10623,7 +10623,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" s="63">
         <v>2014</v>
@@ -10656,10 +10656,10 @@
         <v>13</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -10670,7 +10670,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" s="63">
         <v>2014</v>
@@ -10703,10 +10703,10 @@
         <v>13</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O17" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -10717,7 +10717,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D18" s="63">
         <v>2014</v>
@@ -10750,10 +10750,10 @@
         <v>13</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O18" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -10764,7 +10764,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D19" s="63">
         <v>2013</v>
@@ -10797,10 +10797,10 @@
         <v>13</v>
       </c>
       <c r="N19" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O19" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -10811,7 +10811,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D20" s="63">
         <v>2014</v>
@@ -10840,10 +10840,10 @@
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O20" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -10854,7 +10854,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D21" s="63">
         <v>2014</v>
@@ -10883,10 +10883,10 @@
       <c r="L21" s="63"/>
       <c r="M21" s="63"/>
       <c r="N21" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O21" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -10897,7 +10897,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" s="63">
         <v>2014</v>
@@ -10930,10 +10930,10 @@
         <v>13</v>
       </c>
       <c r="N22" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="O22" s="64" t="s">
         <v>382</v>
-      </c>
-      <c r="O22" s="64" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -10944,7 +10944,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" s="63">
         <v>2014</v>
@@ -10977,10 +10977,10 @@
         <v>13</v>
       </c>
       <c r="N23" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O23" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -10991,7 +10991,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="63">
         <v>2014</v>
@@ -11024,10 +11024,10 @@
         <v>13</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O24" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -11038,7 +11038,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" s="63">
         <v>2014</v>
@@ -11071,10 +11071,10 @@
         <v>13</v>
       </c>
       <c r="N25" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O25" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -11085,7 +11085,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D26" s="63">
         <v>2014</v>
@@ -11118,10 +11118,10 @@
         <v>13</v>
       </c>
       <c r="N26" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O26" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -11132,7 +11132,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="63">
         <v>2014</v>
@@ -11165,10 +11165,10 @@
         <v>13</v>
       </c>
       <c r="N27" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O27" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -11179,7 +11179,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D28" s="63">
         <v>2014</v>
@@ -11212,10 +11212,10 @@
         <v>13</v>
       </c>
       <c r="N28" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O28" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -11226,7 +11226,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D29" s="63">
         <v>2013</v>
@@ -11259,10 +11259,10 @@
         <v>13</v>
       </c>
       <c r="N29" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O29" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -11273,7 +11273,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D30" s="63">
         <v>2014</v>
@@ -11302,10 +11302,10 @@
       <c r="L30" s="63"/>
       <c r="M30" s="63"/>
       <c r="N30" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O30" s="64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -11316,7 +11316,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D31" s="63">
         <v>2014</v>
@@ -11345,10 +11345,10 @@
       <c r="L31" s="63"/>
       <c r="M31" s="63"/>
       <c r="N31" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O31" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -11359,7 +11359,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D32" s="63">
         <v>2014</v>
@@ -11392,10 +11392,10 @@
         <v>13</v>
       </c>
       <c r="N32" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="O32" s="64" t="s">
         <v>393</v>
-      </c>
-      <c r="O32" s="64" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -11406,7 +11406,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D33" s="63">
         <v>2014</v>
@@ -11439,10 +11439,10 @@
         <v>13</v>
       </c>
       <c r="N33" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O33" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -11453,7 +11453,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" s="63">
         <v>2014</v>
@@ -11486,10 +11486,10 @@
         <v>13</v>
       </c>
       <c r="N34" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O34" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -11500,7 +11500,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" s="63">
         <v>2014</v>
@@ -11533,10 +11533,10 @@
         <v>13</v>
       </c>
       <c r="N35" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O35" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -11547,7 +11547,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" s="63">
         <v>2014</v>
@@ -11580,10 +11580,10 @@
         <v>13</v>
       </c>
       <c r="N36" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O36" s="64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -11594,7 +11594,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" s="63">
         <v>2014</v>
@@ -11627,10 +11627,10 @@
         <v>13</v>
       </c>
       <c r="N37" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O37" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -11641,7 +11641,7 @@
         <v>20</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D38" s="63">
         <v>2014</v>
@@ -11674,10 +11674,10 @@
         <v>13</v>
       </c>
       <c r="N38" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O38" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -11688,7 +11688,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39" s="63">
         <v>2013</v>
@@ -11721,10 +11721,10 @@
         <v>13</v>
       </c>
       <c r="N39" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O39" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -11735,7 +11735,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D40" s="63">
         <v>2014</v>
@@ -11764,10 +11764,10 @@
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
       <c r="N40" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O40" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -11778,7 +11778,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D41" s="63">
         <v>2014</v>
@@ -11807,10 +11807,10 @@
       <c r="L41" s="63"/>
       <c r="M41" s="63"/>
       <c r="N41" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O41" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -11821,7 +11821,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D42" s="63">
         <v>2014</v>
@@ -11854,10 +11854,10 @@
         <v>13</v>
       </c>
       <c r="N42" s="63" t="s">
+        <v>403</v>
+      </c>
+      <c r="O42" s="64" t="s">
         <v>404</v>
-      </c>
-      <c r="O42" s="64" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -11868,7 +11868,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" s="63">
         <v>2014</v>
@@ -11901,10 +11901,10 @@
         <v>13</v>
       </c>
       <c r="N43" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O43" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -11915,7 +11915,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" s="63">
         <v>2014</v>
@@ -11948,10 +11948,10 @@
         <v>13</v>
       </c>
       <c r="N44" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O44" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -11962,7 +11962,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D45" s="63">
         <v>2014</v>
@@ -11995,10 +11995,10 @@
         <v>13</v>
       </c>
       <c r="N45" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -12009,7 +12009,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" s="63">
         <v>2014</v>
@@ -12042,10 +12042,10 @@
         <v>13</v>
       </c>
       <c r="N46" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -12056,7 +12056,7 @@
         <v>20</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D47" s="63">
         <v>2014</v>
@@ -12089,10 +12089,10 @@
         <v>13</v>
       </c>
       <c r="N47" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -12103,7 +12103,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D48" s="63">
         <v>2014</v>
@@ -12136,10 +12136,10 @@
         <v>13</v>
       </c>
       <c r="N48" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O48" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -12150,7 +12150,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D49" s="63">
         <v>2013</v>
@@ -12183,10 +12183,10 @@
         <v>13</v>
       </c>
       <c r="N49" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -12197,7 +12197,7 @@
         <v>20</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D50" s="63">
         <v>2014</v>
@@ -12226,10 +12226,10 @@
       <c r="L50" s="63"/>
       <c r="M50" s="63"/>
       <c r="N50" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -12240,7 +12240,7 @@
         <v>20</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D51" s="63">
         <v>2014</v>
@@ -12269,10 +12269,10 @@
       <c r="L51" s="63"/>
       <c r="M51" s="63"/>
       <c r="N51" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O51" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -12283,7 +12283,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" s="63">
         <v>2014</v>
@@ -12316,10 +12316,10 @@
         <v>13</v>
       </c>
       <c r="N52" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" s="64" t="s">
         <v>415</v>
-      </c>
-      <c r="O52" s="64" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -12330,7 +12330,7 @@
         <v>20</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D53" s="63">
         <v>2014</v>
@@ -12363,10 +12363,10 @@
         <v>13</v>
       </c>
       <c r="N53" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O53" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -12377,7 +12377,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D54" s="63">
         <v>2014</v>
@@ -12410,10 +12410,10 @@
         <v>13</v>
       </c>
       <c r="N54" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O54" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -12424,7 +12424,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D55" s="63">
         <v>2014</v>
@@ -12457,10 +12457,10 @@
         <v>13</v>
       </c>
       <c r="N55" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -12471,7 +12471,7 @@
         <v>20</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" s="63">
         <v>2014</v>
@@ -12504,10 +12504,10 @@
         <v>13</v>
       </c>
       <c r="N56" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -12518,7 +12518,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D57" s="63">
         <v>2014</v>
@@ -12551,10 +12551,10 @@
         <v>13</v>
       </c>
       <c r="N57" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -12565,7 +12565,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D58" s="63">
         <v>2014</v>
@@ -12598,10 +12598,10 @@
         <v>13</v>
       </c>
       <c r="N58" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O58" s="64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -12612,7 +12612,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D59" s="63">
         <v>2013</v>
@@ -12645,10 +12645,10 @@
         <v>13</v>
       </c>
       <c r="N59" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O59" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -12659,7 +12659,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D60" s="63">
         <v>2014</v>
@@ -12688,10 +12688,10 @@
       <c r="L60" s="63"/>
       <c r="M60" s="63"/>
       <c r="N60" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O60" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -12702,7 +12702,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D61" s="63">
         <v>2014</v>
@@ -12731,10 +12731,10 @@
       <c r="L61" s="63"/>
       <c r="M61" s="63"/>
       <c r="N61" s="63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O61" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -12745,7 +12745,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D62" s="63">
         <v>2014</v>
@@ -12778,10 +12778,10 @@
         <v>13</v>
       </c>
       <c r="N62" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O62" s="64" t="s">
         <v>426</v>
-      </c>
-      <c r="O62" s="64" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -12792,7 +12792,7 @@
         <v>20</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" s="63">
         <v>2014</v>
@@ -12825,10 +12825,10 @@
         <v>13</v>
       </c>
       <c r="N63" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O63" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -12839,7 +12839,7 @@
         <v>20</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D64" s="63">
         <v>2014</v>
@@ -12872,10 +12872,10 @@
         <v>13</v>
       </c>
       <c r="N64" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O64" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -12886,7 +12886,7 @@
         <v>20</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D65" s="63">
         <v>2014</v>
@@ -12919,10 +12919,10 @@
         <v>13</v>
       </c>
       <c r="N65" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O65" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -12933,7 +12933,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D66" s="63">
         <v>2014</v>
@@ -12966,10 +12966,10 @@
         <v>13</v>
       </c>
       <c r="N66" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O66" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -12980,7 +12980,7 @@
         <v>20</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" s="63">
         <v>2014</v>
@@ -13013,10 +13013,10 @@
         <v>13</v>
       </c>
       <c r="N67" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O67" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -13027,7 +13027,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="63">
         <v>2014</v>
@@ -13060,10 +13060,10 @@
         <v>13</v>
       </c>
       <c r="N68" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O68" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -13074,7 +13074,7 @@
         <v>20</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="63">
         <v>2013</v>
@@ -13107,10 +13107,10 @@
         <v>13</v>
       </c>
       <c r="N69" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O69" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -13121,7 +13121,7 @@
         <v>20</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D70" s="63">
         <v>2014</v>
@@ -13150,10 +13150,10 @@
       <c r="L70" s="63"/>
       <c r="M70" s="63"/>
       <c r="N70" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O70" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -13164,7 +13164,7 @@
         <v>20</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D71" s="63">
         <v>2014</v>
@@ -13193,10 +13193,10 @@
       <c r="L71" s="63"/>
       <c r="M71" s="63"/>
       <c r="N71" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O71" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -13250,7 +13250,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>46</v>
@@ -13282,7 +13282,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="12">
         <v>2013</v>
@@ -13315,10 +13315,10 @@
         <v>26</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -13329,7 +13329,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="12">
         <v>2013</v>
@@ -13362,10 +13362,10 @@
         <v>27</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13376,7 +13376,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="12">
         <v>2013</v>
@@ -13409,10 +13409,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -13423,7 +13423,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="12">
         <v>2013</v>
@@ -13456,10 +13456,10 @@
         <v>28</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13470,7 +13470,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" s="12">
         <v>2012</v>
@@ -13503,10 +13503,10 @@
         <v>28</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -13517,7 +13517,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="12">
         <v>2013</v>
@@ -13550,10 +13550,10 @@
         <v>26</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13564,7 +13564,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="12">
         <v>2013</v>
@@ -13597,10 +13597,10 @@
         <v>27</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -13611,7 +13611,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="12">
         <v>2013</v>
@@ -13644,10 +13644,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -13658,7 +13658,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="12">
         <v>2013</v>
@@ -13691,10 +13691,10 @@
         <v>28</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -13705,7 +13705,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="12">
         <v>2012</v>
@@ -13738,10 +13738,10 @@
         <v>28</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="26.25">
@@ -13752,7 +13752,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D12" s="12">
         <v>2013</v>
@@ -13785,10 +13785,10 @@
         <v>26</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="26.25">
@@ -13799,7 +13799,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D13" s="12">
         <v>2013</v>
@@ -13832,10 +13832,10 @@
         <v>27</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="26.25">
@@ -13846,7 +13846,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" s="12">
         <v>2013</v>
@@ -13879,10 +13879,10 @@
         <v>28</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="26.25">
@@ -13893,7 +13893,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D15" s="12">
         <v>2013</v>
@@ -13926,10 +13926,10 @@
         <v>28</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25">
@@ -13940,7 +13940,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D16" s="12">
         <v>2012</v>
@@ -13973,10 +13973,10 @@
         <v>28</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="26.25">
@@ -13987,7 +13987,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D17" s="12">
         <v>2013</v>
@@ -14020,10 +14020,10 @@
         <v>26</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="26.25">
@@ -14034,7 +14034,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D18" s="12">
         <v>2013</v>
@@ -14067,10 +14067,10 @@
         <v>27</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="26.25">
@@ -14081,7 +14081,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D19" s="12">
         <v>2013</v>
@@ -14114,10 +14114,10 @@
         <v>28</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="26.25">
@@ -14128,7 +14128,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D20" s="12">
         <v>2013</v>
@@ -14161,10 +14161,10 @@
         <v>28</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="26.25">
@@ -14175,7 +14175,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D21" s="12">
         <v>2012</v>
@@ -14208,10 +14208,10 @@
         <v>28</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="26.25">
@@ -14222,7 +14222,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D22" s="12">
         <v>2013</v>
@@ -14255,10 +14255,10 @@
         <v>26</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O22" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="26.25">
@@ -14269,7 +14269,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D23" s="12">
         <v>2013</v>
@@ -14302,10 +14302,10 @@
         <v>27</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O23" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="26.25">
@@ -14316,7 +14316,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D24" s="12">
         <v>2013</v>
@@ -14349,10 +14349,10 @@
         <v>28</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O24" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="26.25">
@@ -14363,7 +14363,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D25" s="12">
         <v>2013</v>
@@ -14396,10 +14396,10 @@
         <v>28</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="26.25">
@@ -14410,7 +14410,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26" s="12">
         <v>2012</v>
@@ -14443,10 +14443,10 @@
         <v>28</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O26" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="26.25">
@@ -14457,7 +14457,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D27" s="12">
         <v>2013</v>
@@ -14490,10 +14490,10 @@
         <v>26</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="26.25">
@@ -14504,7 +14504,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" s="12">
         <v>2013</v>
@@ -14537,10 +14537,10 @@
         <v>27</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="26.25">
@@ -14551,7 +14551,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D29" s="12">
         <v>2013</v>
@@ -14584,10 +14584,10 @@
         <v>28</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="26.25">
@@ -14598,7 +14598,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="12">
         <v>2013</v>
@@ -14631,10 +14631,10 @@
         <v>28</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="26.25">
@@ -14645,7 +14645,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D31" s="12">
         <v>2012</v>
@@ -14678,10 +14678,10 @@
         <v>28</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="26.25">
@@ -14692,7 +14692,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D32" s="12">
         <v>2013</v>
@@ -14725,10 +14725,10 @@
         <v>26</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O32" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="26.25">
@@ -14739,7 +14739,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" s="12">
         <v>2013</v>
@@ -14772,10 +14772,10 @@
         <v>27</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="26.25">
@@ -14786,7 +14786,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D34" s="12">
         <v>2013</v>
@@ -14819,10 +14819,10 @@
         <v>28</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="26.25">
@@ -14833,7 +14833,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D35" s="12">
         <v>2013</v>
@@ -14866,10 +14866,10 @@
         <v>28</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="26.25">
@@ -14880,7 +14880,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D36" s="12">
         <v>2012</v>
@@ -14913,10 +14913,10 @@
         <v>28</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O36" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="26.25">
@@ -14927,7 +14927,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="12">
         <v>2013</v>
@@ -14960,10 +14960,10 @@
         <v>26</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O37" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="26.25">
@@ -14974,7 +14974,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D38" s="12">
         <v>2013</v>
@@ -15007,10 +15007,10 @@
         <v>27</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O38" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="26.25">
@@ -15021,7 +15021,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D39" s="12">
         <v>2013</v>
@@ -15054,10 +15054,10 @@
         <v>28</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O39" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="26.25">
@@ -15068,7 +15068,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D40" s="12">
         <v>2013</v>
@@ -15101,10 +15101,10 @@
         <v>28</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="26.25">
@@ -15115,7 +15115,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="12">
         <v>2012</v>
@@ -15148,10 +15148,10 @@
         <v>28</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O41" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="26.25">
@@ -15162,7 +15162,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D42" s="12">
         <v>2013</v>
@@ -15195,10 +15195,10 @@
         <v>26</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="26.25">
@@ -15209,7 +15209,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D43" s="12">
         <v>2013</v>
@@ -15242,10 +15242,10 @@
         <v>27</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O43" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="26.25">
@@ -15256,7 +15256,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D44" s="12">
         <v>2013</v>
@@ -15289,10 +15289,10 @@
         <v>28</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O44" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="26.25">
@@ -15303,7 +15303,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D45" s="12">
         <v>2013</v>
@@ -15336,10 +15336,10 @@
         <v>28</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O45" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="26.25">
@@ -15350,7 +15350,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46" s="12">
         <v>2012</v>
@@ -15383,10 +15383,10 @@
         <v>28</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O46" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="26.25">
@@ -15397,7 +15397,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D47" s="12">
         <v>2013</v>
@@ -15430,10 +15430,10 @@
         <v>26</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O47" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="26.25">
@@ -15444,7 +15444,7 @@
         <v>25</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D48" s="12">
         <v>2013</v>
@@ -15477,10 +15477,10 @@
         <v>27</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O48" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="26.25">
@@ -15491,7 +15491,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D49" s="12">
         <v>2013</v>
@@ -15524,10 +15524,10 @@
         <v>28</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O49" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="26.25">
@@ -15538,7 +15538,7 @@
         <v>25</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" s="12">
         <v>2013</v>
@@ -15571,10 +15571,10 @@
         <v>28</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O50" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="26.25">
@@ -15585,7 +15585,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D51" s="12">
         <v>2012</v>
@@ -15618,10 +15618,10 @@
         <v>28</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O51" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="26.25">
@@ -15632,7 +15632,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D52" s="12">
         <v>2013</v>
@@ -15665,10 +15665,10 @@
         <v>26</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O52" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="26.25">
@@ -15679,7 +15679,7 @@
         <v>25</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D53" s="12">
         <v>2013</v>
@@ -15712,10 +15712,10 @@
         <v>27</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O53" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="26.25">
@@ -15726,7 +15726,7 @@
         <v>25</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D54" s="12">
         <v>2013</v>
@@ -15759,10 +15759,10 @@
         <v>28</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O54" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="26.25">
@@ -15773,7 +15773,7 @@
         <v>25</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D55" s="12">
         <v>2013</v>
@@ -15806,10 +15806,10 @@
         <v>28</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O55" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="26.25">
@@ -15820,7 +15820,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D56" s="12">
         <v>2012</v>
@@ -15853,10 +15853,10 @@
         <v>28</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O56" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="26.25">
@@ -15867,7 +15867,7 @@
         <v>25</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D57" s="12">
         <v>2013</v>
@@ -15900,10 +15900,10 @@
         <v>26</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O57" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="26.25">
@@ -15914,7 +15914,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D58" s="12">
         <v>2013</v>
@@ -15947,10 +15947,10 @@
         <v>27</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O58" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="26.25">
@@ -15961,7 +15961,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D59" s="12">
         <v>2013</v>
@@ -15994,10 +15994,10 @@
         <v>28</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O59" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="26.25">
@@ -16008,7 +16008,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" s="12">
         <v>2013</v>
@@ -16041,10 +16041,10 @@
         <v>28</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O60" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="26.25">
@@ -16055,7 +16055,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="12">
         <v>2012</v>
@@ -16088,10 +16088,10 @@
         <v>28</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O61" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="26.25">
@@ -16102,7 +16102,7 @@
         <v>25</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" s="12">
         <v>2013</v>
@@ -16135,10 +16135,10 @@
         <v>26</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O62" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="26.25">
@@ -16149,7 +16149,7 @@
         <v>25</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D63" s="12">
         <v>2013</v>
@@ -16182,10 +16182,10 @@
         <v>27</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O63" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="26.25">
@@ -16196,7 +16196,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D64" s="12">
         <v>2013</v>
@@ -16229,10 +16229,10 @@
         <v>28</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O64" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="26.25">
@@ -16243,7 +16243,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D65" s="12">
         <v>2013</v>
@@ -16276,10 +16276,10 @@
         <v>28</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O65" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="26.25">
@@ -16290,7 +16290,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D66" s="12">
         <v>2012</v>
@@ -16323,10 +16323,10 @@
         <v>28</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O66" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="39">
@@ -16337,7 +16337,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D67" s="12">
         <v>2013</v>
@@ -16370,10 +16370,10 @@
         <v>26</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O67" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="39">
@@ -16384,7 +16384,7 @@
         <v>25</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D68" s="12">
         <v>2013</v>
@@ -16417,10 +16417,10 @@
         <v>27</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="39">
@@ -16431,7 +16431,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D69" s="12">
         <v>2013</v>
@@ -16464,10 +16464,10 @@
         <v>28</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="39">
@@ -16478,7 +16478,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D70" s="12">
         <v>2013</v>
@@ -16511,10 +16511,10 @@
         <v>28</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="39">
@@ -16525,7 +16525,7 @@
         <v>25</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D71" s="12">
         <v>2012</v>
@@ -16558,10 +16558,10 @@
         <v>28</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -16572,7 +16572,7 @@
         <v>25</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D72" s="12">
         <v>2013</v>
@@ -16605,10 +16605,10 @@
         <v>26</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -16619,7 +16619,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D73" s="12">
         <v>2013</v>
@@ -16652,10 +16652,10 @@
         <v>27</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O73" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -16666,7 +16666,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D74" s="12">
         <v>2013</v>
@@ -16699,10 +16699,10 @@
         <v>28</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O74" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -16713,7 +16713,7 @@
         <v>25</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D75" s="12">
         <v>2013</v>
@@ -16746,10 +16746,10 @@
         <v>28</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O75" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -16760,7 +16760,7 @@
         <v>25</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D76" s="12">
         <v>2012</v>
@@ -16793,10 +16793,10 @@
         <v>28</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O76" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="26.25">
@@ -16807,7 +16807,7 @@
         <v>25</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D77" s="12">
         <v>2013</v>
@@ -16840,10 +16840,10 @@
         <v>26</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O77" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="26.25">
@@ -16854,7 +16854,7 @@
         <v>25</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D78" s="12">
         <v>2013</v>
@@ -16887,10 +16887,10 @@
         <v>27</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O78" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="26.25">
@@ -16901,7 +16901,7 @@
         <v>25</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D79" s="12">
         <v>2013</v>
@@ -16934,10 +16934,10 @@
         <v>28</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O79" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="26.25">
@@ -16948,7 +16948,7 @@
         <v>25</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D80" s="12">
         <v>2013</v>
@@ -16981,10 +16981,10 @@
         <v>28</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O80" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="26.25">
@@ -16995,7 +16995,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D81" s="12">
         <v>2012</v>
@@ -17028,10 +17028,10 @@
         <v>28</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O81" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -17084,7 +17084,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>46</v>
@@ -17116,7 +17116,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="3">
         <v>2013</v>
@@ -17149,10 +17149,10 @@
         <v>26</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.25">
@@ -17163,7 +17163,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="3">
         <v>2013</v>
@@ -17196,10 +17196,10 @@
         <v>27</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O3" s="59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25">
@@ -17210,7 +17210,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="3">
         <v>2013</v>
@@ -17243,10 +17243,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -17257,7 +17257,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="3">
         <v>2013</v>
@@ -17290,10 +17290,10 @@
         <v>28</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25">
@@ -17304,7 +17304,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="3">
         <v>2012</v>
@@ -17337,10 +17337,10 @@
         <v>28</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="39">
@@ -17351,7 +17351,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D7" s="3">
         <v>2013</v>
@@ -17384,10 +17384,10 @@
         <v>26</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="39">
@@ -17398,7 +17398,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="3">
         <v>2013</v>
@@ -17431,10 +17431,10 @@
         <v>27</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="39">
@@ -17445,7 +17445,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="3">
         <v>2013</v>
@@ -17478,10 +17478,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="39">
@@ -17492,7 +17492,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="3">
         <v>2013</v>
@@ -17525,10 +17525,10 @@
         <v>28</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="39">
@@ -17539,7 +17539,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="3">
         <v>2012</v>
@@ -17572,10 +17572,10 @@
         <v>28</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O11" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="26.25">
@@ -17586,7 +17586,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="3">
         <v>2013</v>
@@ -17619,10 +17619,10 @@
         <v>26</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O12" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="26.25">
@@ -17633,7 +17633,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" s="3">
         <v>2013</v>
@@ -17666,10 +17666,10 @@
         <v>27</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O13" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="26.25">
@@ -17680,7 +17680,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="3">
         <v>2013</v>
@@ -17713,10 +17713,10 @@
         <v>28</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O14" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -17727,7 +17727,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="3">
         <v>2013</v>
@@ -17760,10 +17760,10 @@
         <v>28</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O15" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="26.25">
@@ -17774,7 +17774,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" s="3">
         <v>2012</v>
@@ -17807,10 +17807,10 @@
         <v>28</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="26.25">
@@ -17821,7 +17821,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="3">
         <v>2013</v>
@@ -17854,10 +17854,10 @@
         <v>26</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="26.25">
@@ -17868,7 +17868,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="3">
         <v>2013</v>
@@ -17901,10 +17901,10 @@
         <v>27</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O18" s="62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="26.25">
@@ -17915,7 +17915,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D19" s="3">
         <v>2013</v>
@@ -17948,10 +17948,10 @@
         <v>28</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O19" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="26.25">
@@ -17962,7 +17962,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D20" s="3">
         <v>2013</v>
@@ -17995,10 +17995,10 @@
         <v>28</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O20" s="62" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="26.25">
@@ -18009,7 +18009,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="3">
         <v>2012</v>
@@ -18042,10 +18042,10 @@
         <v>28</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -18057,8 +18057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18103,28 +18103,28 @@
         <v>2</v>
       </c>
       <c r="H1" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="K1" s="67" t="s">
         <v>440</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>441</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>442</v>
       </c>
       <c r="L1" s="67" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P1" s="67" t="s">
         <v>70</v>
@@ -18135,7 +18135,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>45</v>
@@ -18147,7 +18147,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>33</v>
@@ -18159,25 +18159,25 @@
         <v>12</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="64" t="s">
         <v>446</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -18185,7 +18185,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>45</v>
@@ -18197,7 +18197,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G3" s="68" t="s">
         <v>33</v>
@@ -18209,10 +18209,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L3" s="68" t="s">
         <v>13</v>
@@ -18227,7 +18227,7 @@
         <v>13</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -18235,7 +18235,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>45</v>
@@ -18247,7 +18247,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G4" s="68" t="s">
         <v>33</v>
@@ -18259,10 +18259,10 @@
         <v>12</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L4" s="68" t="s">
         <v>13</v>
@@ -18277,7 +18277,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -18285,7 +18285,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>45</v>
@@ -18297,7 +18297,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G5" s="68" t="s">
         <v>33</v>
@@ -18306,13 +18306,13 @@
         <v>12</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
@@ -18327,7 +18327,7 @@
         <v>13</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -18335,7 +18335,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>45</v>
@@ -18347,22 +18347,22 @@
         <v>10</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G6" s="68" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L6" s="70" t="s">
         <v>13</v>
@@ -18377,7 +18377,7 @@
         <v>13</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -18385,7 +18385,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>45</v>
@@ -18397,7 +18397,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G7" s="68" t="s">
         <v>33</v>
@@ -18409,10 +18409,10 @@
         <v>12</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>13</v>
@@ -18427,7 +18427,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -18435,7 +18435,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>45</v>
@@ -18447,7 +18447,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G8" s="68" t="s">
         <v>33</v>
@@ -18459,10 +18459,10 @@
         <v>12</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L8" s="68" t="s">
         <v>13</v>
@@ -18477,7 +18477,7 @@
         <v>13</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -18485,7 +18485,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>45</v>
@@ -18497,7 +18497,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G9" s="68" t="s">
         <v>33</v>
@@ -18509,10 +18509,10 @@
         <v>12</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L9" s="68" t="s">
         <v>13</v>
@@ -18527,7 +18527,7 @@
         <v>13</v>
       </c>
       <c r="P9" s="64" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -18535,7 +18535,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>43</v>
@@ -18547,7 +18547,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>33</v>
@@ -18559,10 +18559,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>13</v>
@@ -18577,7 +18577,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -18585,7 +18585,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>43</v>
@@ -18597,7 +18597,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>33</v>
@@ -18609,10 +18609,10 @@
         <v>12</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>13</v>
@@ -18627,7 +18627,7 @@
         <v>13</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -18635,7 +18635,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>43</v>
@@ -18647,7 +18647,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>33</v>
@@ -18659,10 +18659,10 @@
         <v>12</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>13</v>
@@ -18677,7 +18677,7 @@
         <v>13</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -18685,7 +18685,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>43</v>
@@ -18697,7 +18697,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>33</v>
@@ -18706,13 +18706,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>13</v>
@@ -18727,7 +18727,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="64" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -18735,7 +18735,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>43</v>
@@ -18747,22 +18747,22 @@
         <v>10</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>13</v>
@@ -18777,7 +18777,7 @@
         <v>13</v>
       </c>
       <c r="P14" s="64" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -18785,7 +18785,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>43</v>
@@ -18797,7 +18797,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>17</v>
@@ -18809,10 +18809,10 @@
         <v>12</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>13</v>
@@ -18827,7 +18827,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -18835,7 +18835,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>43</v>
@@ -18847,7 +18847,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>33</v>
@@ -18859,10 +18859,10 @@
         <v>12</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>13</v>
@@ -18877,7 +18877,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="64" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -18885,7 +18885,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>43</v>
@@ -18897,7 +18897,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>33</v>
@@ -18909,10 +18909,10 @@
         <v>12</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>13</v>
@@ -18927,7 +18927,7 @@
         <v>13</v>
       </c>
       <c r="P17" s="64" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -18935,7 +18935,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>43</v>
@@ -18947,7 +18947,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>33</v>
@@ -18959,10 +18959,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>13</v>
@@ -18977,7 +18977,7 @@
         <v>13</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="39">
@@ -18985,49 +18985,49 @@
         <v>42</v>
       </c>
       <c r="B19" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D19" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="H19" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="L19" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="64" t="s">
         <v>471</v>
-      </c>
-      <c r="D19" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="L19" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="64" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="39">
@@ -19035,49 +19035,49 @@
         <v>42</v>
       </c>
       <c r="B20" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="68" t="s">
+      <c r="H20" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K20" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="L20" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="H20" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="L20" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="68" t="s">
-        <v>474</v>
-      </c>
       <c r="P20" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="39">
@@ -19085,34 +19085,34 @@
         <v>42</v>
       </c>
       <c r="B21" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D21" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D21" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="68" t="s">
+      <c r="H21" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K21" s="68" t="s">
         <v>445</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K21" s="68" t="s">
-        <v>447</v>
       </c>
       <c r="L21" s="68" t="s">
         <v>21</v>
@@ -19127,7 +19127,7 @@
         <v>12</v>
       </c>
       <c r="P21" s="64" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="39">
@@ -19135,23 +19135,23 @@
         <v>42</v>
       </c>
       <c r="B22" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D22" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>472</v>
-      </c>
       <c r="H22" s="68" t="s">
         <v>12</v>
       </c>
@@ -19159,10 +19159,10 @@
         <v>12</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L22" s="68" t="s">
         <v>12</v>
@@ -19177,7 +19177,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="64" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="39">
@@ -19185,35 +19185,35 @@
         <v>42</v>
       </c>
       <c r="B23" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D23" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="68" t="s">
+      <c r="H23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="K23" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G23" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>451</v>
-      </c>
-      <c r="K23" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L23" s="68" t="s">
         <v>12</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>12</v>
       </c>
       <c r="P23" s="64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="39">
@@ -19235,35 +19235,35 @@
         <v>42</v>
       </c>
       <c r="B24" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D24" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D24" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="68" t="s">
+      <c r="H24" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K24" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H24" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>453</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K24" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L24" s="68" t="s">
         <v>12</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>12</v>
       </c>
       <c r="P24" s="64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="39">
@@ -19285,35 +19285,35 @@
         <v>42</v>
       </c>
       <c r="B25" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D25" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="68" t="s">
+      <c r="H25" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K25" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G25" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>455</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L25" s="68" t="s">
         <v>12</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>12</v>
       </c>
       <c r="P25" s="64" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="26.25">
@@ -19335,10 +19335,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D26" s="69">
         <v>2014</v>
@@ -19347,7 +19347,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>17</v>
@@ -19359,10 +19359,10 @@
         <v>12</v>
       </c>
       <c r="J26" s="68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L26" s="68" t="s">
         <v>12</v>
@@ -19377,7 +19377,7 @@
         <v>12</v>
       </c>
       <c r="P26" s="64" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="39">
@@ -19385,23 +19385,23 @@
         <v>42</v>
       </c>
       <c r="B27" s="68" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" s="69">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="G27" s="68" t="s">
         <v>470</v>
       </c>
-      <c r="C27" s="68" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27" s="69">
-        <v>2014</v>
-      </c>
-      <c r="E27" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>472</v>
-      </c>
       <c r="H27" s="68" t="s">
         <v>12</v>
       </c>
@@ -19409,10 +19409,10 @@
         <v>12</v>
       </c>
       <c r="J27" s="68" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K27" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L27" s="68" t="s">
         <v>12</v>
@@ -19427,7 +19427,7 @@
         <v>12</v>
       </c>
       <c r="P27" s="64" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="39">
@@ -19435,10 +19435,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D28" s="69">
         <v>2014</v>
@@ -19447,23 +19447,23 @@
         <v>31</v>
       </c>
       <c r="F28" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H28" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K28" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G28" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K28" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L28" s="68" t="s">
         <v>12</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>12</v>
       </c>
       <c r="P28" s="64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="39">
@@ -19485,10 +19485,10 @@
         <v>42</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D29" s="69">
         <v>2013</v>
@@ -19497,23 +19497,23 @@
         <v>10</v>
       </c>
       <c r="F29" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H29" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K29" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="K29" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L29" s="68" t="s">
         <v>12</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>12</v>
       </c>
       <c r="P29" s="64" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -19535,10 +19535,10 @@
         <v>42</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" s="72">
         <v>2013</v>
@@ -19547,23 +19547,23 @@
         <v>10</v>
       </c>
       <c r="F30" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K30" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K30" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L30" s="16" t="s">
         <v>13</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>13</v>
       </c>
       <c r="P30" s="64" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -19585,10 +19585,10 @@
         <v>42</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D31" s="72">
         <v>2013</v>
@@ -19597,37 +19597,37 @@
         <v>10</v>
       </c>
       <c r="F31" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G31" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K31" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="64" t="s">
         <v>486</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K31" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="64" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -19635,10 +19635,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D32" s="72">
         <v>2013</v>
@@ -19647,23 +19647,23 @@
         <v>10</v>
       </c>
       <c r="F32" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="71" t="s">
-        <v>451</v>
-      </c>
-      <c r="K32" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L32" s="16" t="s">
         <v>13</v>
       </c>
@@ -19677,7 +19677,7 @@
         <v>13</v>
       </c>
       <c r="P32" s="64" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -19685,10 +19685,10 @@
         <v>42</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" s="72">
         <v>2013</v>
@@ -19697,10 +19697,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>12</v>
@@ -19709,10 +19709,10 @@
         <v>24</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>13</v>
@@ -19727,7 +19727,7 @@
         <v>13</v>
       </c>
       <c r="P33" s="64" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -19735,10 +19735,10 @@
         <v>42</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D34" s="15">
         <v>2013</v>
@@ -19747,23 +19747,23 @@
         <v>10</v>
       </c>
       <c r="F34" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>453</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H34" s="71" t="s">
-        <v>455</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K34" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L34" s="14" t="s">
         <v>13</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>13</v>
       </c>
       <c r="P34" s="64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -19785,10 +19785,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D35" s="15">
         <v>2013</v>
@@ -19797,23 +19797,23 @@
         <v>10</v>
       </c>
       <c r="F35" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K35" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K35" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L35" s="14" t="s">
         <v>13</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>13</v>
       </c>
       <c r="P35" s="64" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -19835,10 +19835,10 @@
         <v>42</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D36" s="72">
         <v>2013</v>
@@ -19847,10 +19847,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>12</v>
@@ -19859,10 +19859,10 @@
         <v>12</v>
       </c>
       <c r="J36" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K36" s="71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>13</v>
@@ -19877,7 +19877,7 @@
         <v>13</v>
       </c>
       <c r="P36" s="64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -19885,10 +19885,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="72">
         <v>2013</v>
@@ -19897,23 +19897,23 @@
         <v>37</v>
       </c>
       <c r="F37" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K37" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K37" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L37" s="16" t="s">
         <v>13</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>13</v>
       </c>
       <c r="P37" s="64" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -19935,10 +19935,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D38" s="72">
         <v>2012</v>
@@ -19947,23 +19947,23 @@
         <v>10</v>
       </c>
       <c r="F38" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K38" s="71" t="s">
         <v>445</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K38" s="71" t="s">
-        <v>447</v>
-      </c>
       <c r="L38" s="16" t="s">
         <v>13</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>13</v>
       </c>
       <c r="P38" s="64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="39">
@@ -19985,10 +19985,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D39" s="69">
         <v>2014</v>
@@ -19997,23 +19997,23 @@
         <v>10</v>
       </c>
       <c r="F39" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K39" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G39" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K39" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L39" s="68" t="s">
         <v>12</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>12</v>
       </c>
       <c r="P39" s="64" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="39">
@@ -20035,10 +20035,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C40" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D40" s="69">
         <v>2014</v>
@@ -20047,22 +20047,22 @@
         <v>10</v>
       </c>
       <c r="F40" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H40" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K40" s="68" t="s">
         <v>445</v>
-      </c>
-      <c r="G40" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H40" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K40" s="68" t="s">
-        <v>447</v>
       </c>
       <c r="L40" s="68" t="s">
         <v>12</v>
@@ -20077,7 +20077,7 @@
         <v>24</v>
       </c>
       <c r="P40" s="64" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="39">
@@ -20085,10 +20085,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D41" s="69">
         <v>2014</v>
@@ -20097,22 +20097,22 @@
         <v>10</v>
       </c>
       <c r="F41" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H41" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K41" s="68" t="s">
         <v>445</v>
-      </c>
-      <c r="G41" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H41" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>447</v>
       </c>
       <c r="L41" s="68" t="s">
         <v>12</v>
@@ -20127,7 +20127,7 @@
         <v>12</v>
       </c>
       <c r="P41" s="64" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="39">
@@ -20135,10 +20135,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D42" s="69">
         <v>2014</v>
@@ -20147,28 +20147,28 @@
         <v>10</v>
       </c>
       <c r="F42" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K42" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G42" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H42" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K42" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L42" s="68" t="s">
         <v>12</v>
       </c>
       <c r="M42" s="68" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N42" s="68" t="s">
         <v>12</v>
@@ -20177,7 +20177,7 @@
         <v>12</v>
       </c>
       <c r="P42" s="64" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="39">
@@ -20185,10 +20185,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D43" s="69">
         <v>2014</v>
@@ -20197,22 +20197,22 @@
         <v>10</v>
       </c>
       <c r="F43" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K43" s="68" t="s">
         <v>445</v>
-      </c>
-      <c r="G43" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H43" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>447</v>
       </c>
       <c r="L43" s="68" t="s">
         <v>21</v>
@@ -20227,7 +20227,7 @@
         <v>12</v>
       </c>
       <c r="P43" s="64" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="39">
@@ -20235,10 +20235,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D44" s="69">
         <v>2014</v>
@@ -20247,10 +20247,10 @@
         <v>10</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H44" s="68" t="s">
         <v>12</v>
@@ -20259,10 +20259,10 @@
         <v>12</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L44" s="68" t="s">
         <v>12</v>
@@ -20277,7 +20277,7 @@
         <v>12</v>
       </c>
       <c r="P44" s="64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="39">
@@ -20285,10 +20285,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D45" s="69">
         <v>2014</v>
@@ -20297,23 +20297,23 @@
         <v>10</v>
       </c>
       <c r="F45" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="K45" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G45" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L45" s="68" t="s">
         <v>12</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>12</v>
       </c>
       <c r="P45" s="64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="39">
@@ -20335,10 +20335,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D46" s="69">
         <v>2014</v>
@@ -20347,23 +20347,23 @@
         <v>10</v>
       </c>
       <c r="F46" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K46" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G46" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H46" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K46" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L46" s="68" t="s">
         <v>12</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>12</v>
       </c>
       <c r="P46" s="64" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="39">
@@ -20385,10 +20385,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D47" s="69">
         <v>2014</v>
@@ -20397,23 +20397,23 @@
         <v>10</v>
       </c>
       <c r="F47" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G47" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H47" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K47" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G47" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H47" s="68" t="s">
-        <v>455</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K47" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L47" s="68" t="s">
         <v>12</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>12</v>
       </c>
       <c r="P47" s="64" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="26.25">
@@ -20435,10 +20435,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D48" s="69">
         <v>2014</v>
@@ -20447,7 +20447,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G48" s="68" t="s">
         <v>17</v>
@@ -20459,10 +20459,10 @@
         <v>12</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K48" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L48" s="68" t="s">
         <v>12</v>
@@ -20477,7 +20477,7 @@
         <v>12</v>
       </c>
       <c r="P48" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="39">
@@ -20485,10 +20485,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D49" s="69">
         <v>2014</v>
@@ -20497,10 +20497,10 @@
         <v>10</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H49" s="68" t="s">
         <v>12</v>
@@ -20509,10 +20509,10 @@
         <v>12</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K49" s="68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L49" s="68" t="s">
         <v>12</v>
@@ -20527,7 +20527,7 @@
         <v>12</v>
       </c>
       <c r="P49" s="64" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="39">
@@ -20535,10 +20535,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D50" s="69">
         <v>2014</v>
@@ -20547,23 +20547,23 @@
         <v>31</v>
       </c>
       <c r="F50" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H50" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G50" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H50" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K50" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L50" s="68" t="s">
         <v>12</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>12</v>
       </c>
       <c r="P50" s="64" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="39">
@@ -20585,10 +20585,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D51" s="69">
         <v>2013</v>
@@ -20597,23 +20597,23 @@
         <v>10</v>
       </c>
       <c r="F51" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="H51" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K51" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="G51" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H51" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="K51" s="68" t="s">
-        <v>447</v>
-      </c>
       <c r="L51" s="68" t="s">
         <v>12</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>12</v>
       </c>
       <c r="P51" s="64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="39">
@@ -20635,10 +20635,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D52" s="72">
         <v>2013</v>
@@ -20647,23 +20647,23 @@
         <v>10</v>
       </c>
       <c r="F52" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G52" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L52" s="16" t="s">
         <v>12</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>12</v>
       </c>
       <c r="P52" s="64" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="39">
@@ -20685,10 +20685,10 @@
         <v>42</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D53" s="72">
         <v>2013</v>
@@ -20697,23 +20697,23 @@
         <v>10</v>
       </c>
       <c r="F53" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G53" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L53" s="16" t="s">
         <v>12</v>
       </c>
@@ -20724,10 +20724,10 @@
         <v>13</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P53" s="64" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="39">
@@ -20735,10 +20735,10 @@
         <v>42</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D54" s="72">
         <v>2013</v>
@@ -20747,28 +20747,28 @@
         <v>10</v>
       </c>
       <c r="F54" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K54" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G54" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L54" s="16" t="s">
         <v>12</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N54" s="16" t="s">
         <v>13</v>
@@ -20777,7 +20777,7 @@
         <v>12</v>
       </c>
       <c r="P54" s="64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="39">
@@ -20785,10 +20785,10 @@
         <v>42</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D55" s="72">
         <v>2013</v>
@@ -20797,22 +20797,22 @@
         <v>10</v>
       </c>
       <c r="F55" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" s="16" t="s">
         <v>445</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>447</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>21</v>
@@ -20827,7 +20827,7 @@
         <v>12</v>
       </c>
       <c r="P55" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="39">
@@ -20835,10 +20835,10 @@
         <v>42</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D56" s="72">
         <v>2013</v>
@@ -20847,10 +20847,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>12</v>
@@ -20859,10 +20859,10 @@
         <v>12</v>
       </c>
       <c r="J56" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L56" s="16" t="s">
         <v>12</v>
@@ -20877,7 +20877,7 @@
         <v>12</v>
       </c>
       <c r="P56" s="64" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="39">
@@ -20885,10 +20885,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D57" s="72">
         <v>2013</v>
@@ -20897,23 +20897,23 @@
         <v>10</v>
       </c>
       <c r="F57" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="71" t="s">
-        <v>451</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L57" s="16" t="s">
         <v>12</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>12</v>
       </c>
       <c r="P57" s="64" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="39">
@@ -20935,10 +20935,10 @@
         <v>42</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D58" s="72">
         <v>2013</v>
@@ -20947,23 +20947,23 @@
         <v>10</v>
       </c>
       <c r="F58" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K58" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>453</v>
-      </c>
-      <c r="J58" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L58" s="16" t="s">
         <v>12</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>12</v>
       </c>
       <c r="P58" s="64" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="39">
@@ -20985,10 +20985,10 @@
         <v>42</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D59" s="72">
         <v>2013</v>
@@ -20997,23 +20997,23 @@
         <v>10</v>
       </c>
       <c r="F59" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="I59" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="I59" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L59" s="16" t="s">
         <v>12</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>12</v>
       </c>
       <c r="P59" s="64" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="26.25">
@@ -21035,10 +21035,10 @@
         <v>42</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D60" s="72">
         <v>2013</v>
@@ -21047,7 +21047,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="71" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>17</v>
@@ -21059,10 +21059,10 @@
         <v>12</v>
       </c>
       <c r="J60" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>12</v>
@@ -21077,7 +21077,7 @@
         <v>12</v>
       </c>
       <c r="P60" s="64" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="39">
@@ -21085,10 +21085,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D61" s="72">
         <v>2013</v>
@@ -21097,10 +21097,10 @@
         <v>10</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>12</v>
@@ -21109,10 +21109,10 @@
         <v>12</v>
       </c>
       <c r="J61" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L61" s="16" t="s">
         <v>12</v>
@@ -21127,7 +21127,7 @@
         <v>12</v>
       </c>
       <c r="P61" s="64" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="39">
@@ -21135,10 +21135,10 @@
         <v>42</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D62" s="72">
         <v>2013</v>
@@ -21147,23 +21147,23 @@
         <v>37</v>
       </c>
       <c r="F62" s="71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="71" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="G62" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>447</v>
-      </c>
       <c r="L62" s="16" t="s">
         <v>12</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>12</v>
       </c>
       <c r="P62" s="64" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:16">
